--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Grn-Tnfrsf1a.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Grn-Tnfrsf1a.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>40.112576657729</v>
+        <v>40.19608333333333</v>
       </c>
       <c r="H2">
-        <v>40.112576657729</v>
+        <v>120.58825</v>
       </c>
       <c r="I2">
-        <v>0.03615695811797284</v>
+        <v>0.03460557835761813</v>
       </c>
       <c r="J2">
-        <v>0.03615695811797284</v>
+        <v>0.03460557835761813</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>46.9014718238501</v>
+        <v>47.53430066666667</v>
       </c>
       <c r="N2">
-        <v>46.9014718238501</v>
+        <v>142.602902</v>
       </c>
       <c r="O2">
-        <v>0.2310501711839757</v>
+        <v>0.2298097923041026</v>
       </c>
       <c r="P2">
-        <v>0.2310501711839757</v>
+        <v>0.2298097923041026</v>
       </c>
       <c r="Q2">
-        <v>1881.338883894504</v>
+        <v>1910.692710789056</v>
       </c>
       <c r="R2">
-        <v>1881.338883894504</v>
+        <v>17196.2343971015</v>
       </c>
       <c r="S2">
-        <v>0.008354071362649465</v>
+        <v>0.00795270077492757</v>
       </c>
       <c r="T2">
-        <v>0.008354071362649465</v>
+        <v>0.007952700774927572</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>40.112576657729</v>
+        <v>40.19608333333333</v>
       </c>
       <c r="H3">
-        <v>40.112576657729</v>
+        <v>120.58825</v>
       </c>
       <c r="I3">
-        <v>0.03615695811797284</v>
+        <v>0.03460557835761813</v>
       </c>
       <c r="J3">
-        <v>0.03615695811797284</v>
+        <v>0.03460557835761813</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>51.8689398202768</v>
+        <v>51.976569</v>
       </c>
       <c r="N3">
-        <v>51.8689398202768</v>
+        <v>155.929707</v>
       </c>
       <c r="O3">
-        <v>0.2555213505797078</v>
+        <v>0.2512864259922955</v>
       </c>
       <c r="P3">
-        <v>0.2555213505797078</v>
+        <v>0.2512864259922956</v>
       </c>
       <c r="Q3">
-        <v>2080.596824695986</v>
+        <v>2089.25449890475</v>
       </c>
       <c r="R3">
-        <v>2080.596824695986</v>
+        <v>18803.29049014275</v>
       </c>
       <c r="S3">
-        <v>0.009238874771158352</v>
+        <v>0.008695912104882192</v>
       </c>
       <c r="T3">
-        <v>0.009238874771158352</v>
+        <v>0.008695912104882195</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>40.112576657729</v>
+        <v>40.19608333333333</v>
       </c>
       <c r="H4">
-        <v>40.112576657729</v>
+        <v>120.58825</v>
       </c>
       <c r="I4">
-        <v>0.03615695811797284</v>
+        <v>0.03460557835761813</v>
       </c>
       <c r="J4">
-        <v>0.03615695811797284</v>
+        <v>0.03460557835761813</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>43.6693854919082</v>
+        <v>43.88814033333333</v>
       </c>
       <c r="N4">
-        <v>43.6693854919082</v>
+        <v>131.664421</v>
       </c>
       <c r="O4">
-        <v>0.2151279821515877</v>
+        <v>0.2121820300953617</v>
       </c>
       <c r="P4">
-        <v>0.2151279821515877</v>
+        <v>0.2121820300953618</v>
       </c>
       <c r="Q4">
-        <v>1751.691573140086</v>
+        <v>1764.131346183694</v>
       </c>
       <c r="R4">
-        <v>1751.691573140086</v>
+        <v>15877.18211565325</v>
       </c>
       <c r="S4">
-        <v>0.007778373440658964</v>
+        <v>0.007342681868543529</v>
       </c>
       <c r="T4">
-        <v>0.007778373440658964</v>
+        <v>0.007342681868543531</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>40.112576657729</v>
+        <v>40.19608333333333</v>
       </c>
       <c r="H5">
-        <v>40.112576657729</v>
+        <v>120.58825</v>
       </c>
       <c r="I5">
-        <v>0.03615695811797284</v>
+        <v>0.03460557835761813</v>
       </c>
       <c r="J5">
-        <v>0.03615695811797284</v>
+        <v>0.03460557835761813</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>52.358197119153</v>
+        <v>54.95204066666667</v>
       </c>
       <c r="N5">
-        <v>52.358197119153</v>
+        <v>164.856122</v>
       </c>
       <c r="O5">
-        <v>0.2579315730793964</v>
+        <v>0.2656716702502996</v>
       </c>
       <c r="P5">
-        <v>0.2579315730793964</v>
+        <v>0.2656716702502997</v>
       </c>
       <c r="Q5">
-        <v>2100.222195602511</v>
+        <v>2208.856805974056</v>
       </c>
       <c r="R5">
-        <v>2100.222195602511</v>
+        <v>19879.7112537665</v>
       </c>
       <c r="S5">
-        <v>0.009326021085134587</v>
+        <v>0.00919372180224603</v>
       </c>
       <c r="T5">
-        <v>0.009326021085134587</v>
+        <v>0.009193721802246032</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>40.112576657729</v>
+        <v>40.19608333333333</v>
       </c>
       <c r="H6">
-        <v>40.112576657729</v>
+        <v>120.58825</v>
       </c>
       <c r="I6">
-        <v>0.03615695811797284</v>
+        <v>0.03460557835761813</v>
       </c>
       <c r="J6">
-        <v>0.03615695811797284</v>
+        <v>0.03460557835761813</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.194592088772611</v>
+        <v>8.490878</v>
       </c>
       <c r="N6">
-        <v>8.194592088772611</v>
+        <v>25.472634</v>
       </c>
       <c r="O6">
-        <v>0.04036892300533226</v>
+        <v>0.04105008135794053</v>
       </c>
       <c r="P6">
-        <v>0.04036892300533226</v>
+        <v>0.04105008135794054</v>
       </c>
       <c r="Q6">
-        <v>328.706203339711</v>
+        <v>341.3000396611667</v>
       </c>
       <c r="R6">
-        <v>328.706203339711</v>
+        <v>3071.7003569505</v>
       </c>
       <c r="S6">
-        <v>0.001459617458371469</v>
+        <v>0.001420561807018811</v>
       </c>
       <c r="T6">
-        <v>0.001459617458371469</v>
+        <v>0.001420561807018811</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>90.202521392177</v>
+        <v>90.21844233333333</v>
       </c>
       <c r="H7">
-        <v>90.202521392177</v>
+        <v>270.655327</v>
       </c>
       <c r="I7">
-        <v>0.08130738685628834</v>
+        <v>0.07767078572253315</v>
       </c>
       <c r="J7">
-        <v>0.08130738685628834</v>
+        <v>0.07767078572253316</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>46.9014718238501</v>
+        <v>47.53430066666667</v>
       </c>
       <c r="N7">
-        <v>46.9014718238501</v>
+        <v>142.602902</v>
       </c>
       <c r="O7">
-        <v>0.2310501711839757</v>
+        <v>0.2298097923041026</v>
       </c>
       <c r="P7">
-        <v>0.2310501711839757</v>
+        <v>0.2298097923041026</v>
       </c>
       <c r="Q7">
-        <v>4230.631015515426</v>
+        <v>4288.470563550994</v>
       </c>
       <c r="R7">
-        <v>4230.631015515426</v>
+        <v>38596.23507195895</v>
       </c>
       <c r="S7">
-        <v>0.01878608565166716</v>
+        <v>0.0178495071349918</v>
       </c>
       <c r="T7">
-        <v>0.01878608565166716</v>
+        <v>0.0178495071349918</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>90.202521392177</v>
+        <v>90.21844233333333</v>
       </c>
       <c r="H8">
-        <v>90.202521392177</v>
+        <v>270.655327</v>
       </c>
       <c r="I8">
-        <v>0.08130738685628834</v>
+        <v>0.07767078572253315</v>
       </c>
       <c r="J8">
-        <v>0.08130738685628834</v>
+        <v>0.07767078572253316</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>51.8689398202768</v>
+        <v>51.976569</v>
       </c>
       <c r="N8">
-        <v>51.8689398202768</v>
+        <v>155.929707</v>
       </c>
       <c r="O8">
-        <v>0.2555213505797078</v>
+        <v>0.2512864259922955</v>
       </c>
       <c r="P8">
-        <v>0.2555213505797078</v>
+        <v>0.2512864259922956</v>
       </c>
       <c r="Q8">
-        <v>4678.709153728059</v>
+        <v>4689.245093011021</v>
       </c>
       <c r="R8">
-        <v>4678.709153728059</v>
+        <v>42203.20583709919</v>
       </c>
       <c r="S8">
-        <v>0.02077577330162558</v>
+        <v>0.01951761414822877</v>
       </c>
       <c r="T8">
-        <v>0.02077577330162558</v>
+        <v>0.01951761414822878</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>90.202521392177</v>
+        <v>90.21844233333333</v>
       </c>
       <c r="H9">
-        <v>90.202521392177</v>
+        <v>270.655327</v>
       </c>
       <c r="I9">
-        <v>0.08130738685628834</v>
+        <v>0.07767078572253315</v>
       </c>
       <c r="J9">
-        <v>0.08130738685628834</v>
+        <v>0.07767078572253316</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>43.6693854919082</v>
+        <v>43.88814033333333</v>
       </c>
       <c r="N9">
-        <v>43.6693854919082</v>
+        <v>131.664421</v>
       </c>
       <c r="O9">
-        <v>0.2151279821515877</v>
+        <v>0.2121820300953617</v>
       </c>
       <c r="P9">
-        <v>0.2151279821515877</v>
+        <v>0.2121820300953618</v>
       </c>
       <c r="Q9">
-        <v>3939.088679017073</v>
+        <v>3959.519657780074</v>
       </c>
       <c r="R9">
-        <v>3939.088679017073</v>
+        <v>35635.67692002067</v>
       </c>
       <c r="S9">
-        <v>0.01749149406841183</v>
+        <v>0.01648034499370892</v>
       </c>
       <c r="T9">
-        <v>0.01749149406841183</v>
+        <v>0.01648034499370893</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>90.202521392177</v>
+        <v>90.21844233333333</v>
       </c>
       <c r="H10">
-        <v>90.202521392177</v>
+        <v>270.655327</v>
       </c>
       <c r="I10">
-        <v>0.08130738685628834</v>
+        <v>0.07767078572253315</v>
       </c>
       <c r="J10">
-        <v>0.08130738685628834</v>
+        <v>0.07767078572253316</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>52.358197119153</v>
+        <v>54.95204066666667</v>
       </c>
       <c r="N10">
-        <v>52.358197119153</v>
+        <v>164.856122</v>
       </c>
       <c r="O10">
-        <v>0.2579315730793964</v>
+        <v>0.2656716702502996</v>
       </c>
       <c r="P10">
-        <v>0.2579315730793964</v>
+        <v>0.2656716702502997</v>
       </c>
       <c r="Q10">
-        <v>4722.841395696219</v>
+        <v>4957.687511984655</v>
       </c>
       <c r="R10">
-        <v>4722.841395696219</v>
+        <v>44619.1876078619</v>
       </c>
       <c r="S10">
-        <v>0.02097174219481749</v>
+        <v>0.02063492737255851</v>
       </c>
       <c r="T10">
-        <v>0.02097174219481749</v>
+        <v>0.02063492737255852</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>90.202521392177</v>
+        <v>90.21844233333333</v>
       </c>
       <c r="H11">
-        <v>90.202521392177</v>
+        <v>270.655327</v>
       </c>
       <c r="I11">
-        <v>0.08130738685628834</v>
+        <v>0.07767078572253315</v>
       </c>
       <c r="J11">
-        <v>0.08130738685628834</v>
+        <v>0.07767078572253316</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.194592088772611</v>
+        <v>8.490878</v>
       </c>
       <c r="N11">
-        <v>8.194592088772611</v>
+        <v>25.472634</v>
       </c>
       <c r="O11">
-        <v>0.04036892300533226</v>
+        <v>0.04105008135794053</v>
       </c>
       <c r="P11">
-        <v>0.04036892300533226</v>
+        <v>0.04105008135794054</v>
       </c>
       <c r="Q11">
-        <v>739.1728681876758</v>
+        <v>766.0337872023687</v>
       </c>
       <c r="R11">
-        <v>739.1728681876758</v>
+        <v>6894.304084821318</v>
       </c>
       <c r="S11">
-        <v>0.003282291639766268</v>
+        <v>0.003188392073045152</v>
       </c>
       <c r="T11">
-        <v>0.003282291639766268</v>
+        <v>0.003188392073045153</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>547.023962481895</v>
+        <v>548.9084373333334</v>
       </c>
       <c r="H12">
-        <v>547.023962481895</v>
+        <v>1646.725312</v>
       </c>
       <c r="I12">
-        <v>0.4930803291384774</v>
+        <v>0.4725657915915454</v>
       </c>
       <c r="J12">
-        <v>0.4930803291384774</v>
+        <v>0.4725657915915454</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>46.9014718238501</v>
+        <v>47.53430066666667</v>
       </c>
       <c r="N12">
-        <v>46.9014718238501</v>
+        <v>142.602902</v>
       </c>
       <c r="O12">
-        <v>0.2310501711839757</v>
+        <v>0.2298097923041026</v>
       </c>
       <c r="P12">
-        <v>0.2310501711839757</v>
+        <v>0.2298097923041026</v>
       </c>
       <c r="Q12">
-        <v>25656.22896331543</v>
+        <v>26091.97869867283</v>
       </c>
       <c r="R12">
-        <v>25656.22896331543</v>
+        <v>234827.8082880554</v>
       </c>
       <c r="S12">
-        <v>0.1139262944548963</v>
+        <v>0.1086002464156769</v>
       </c>
       <c r="T12">
-        <v>0.1139262944548963</v>
+        <v>0.1086002464156769</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>547.023962481895</v>
+        <v>548.9084373333334</v>
       </c>
       <c r="H13">
-        <v>547.023962481895</v>
+        <v>1646.725312</v>
       </c>
       <c r="I13">
-        <v>0.4930803291384774</v>
+        <v>0.4725657915915454</v>
       </c>
       <c r="J13">
-        <v>0.4930803291384774</v>
+        <v>0.4725657915915454</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>51.8689398202768</v>
+        <v>51.976569</v>
       </c>
       <c r="N13">
-        <v>51.8689398202768</v>
+        <v>155.929707</v>
       </c>
       <c r="O13">
-        <v>0.2555213505797078</v>
+        <v>0.2512864259922955</v>
       </c>
       <c r="P13">
-        <v>0.2555213505797078</v>
+        <v>0.2512864259922956</v>
       </c>
       <c r="Q13">
-        <v>28373.55299022276</v>
+        <v>28530.37726773818</v>
       </c>
       <c r="R13">
-        <v>28373.55299022276</v>
+        <v>256773.3954096436</v>
       </c>
       <c r="S13">
-        <v>0.1259925516457506</v>
+        <v>0.1187493688152594</v>
       </c>
       <c r="T13">
-        <v>0.1259925516457506</v>
+        <v>0.1187493688152594</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>547.023962481895</v>
+        <v>548.9084373333334</v>
       </c>
       <c r="H14">
-        <v>547.023962481895</v>
+        <v>1646.725312</v>
       </c>
       <c r="I14">
-        <v>0.4930803291384774</v>
+        <v>0.4725657915915454</v>
       </c>
       <c r="J14">
-        <v>0.4930803291384774</v>
+        <v>0.4725657915915454</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>43.6693854919082</v>
+        <v>43.88814033333333</v>
       </c>
       <c r="N14">
-        <v>43.6693854919082</v>
+        <v>131.664421</v>
       </c>
       <c r="O14">
-        <v>0.2151279821515877</v>
+        <v>0.2121820300953617</v>
       </c>
       <c r="P14">
-        <v>0.2151279821515877</v>
+        <v>0.2121820300953618</v>
       </c>
       <c r="Q14">
-        <v>23888.200290933</v>
+        <v>24090.57052783604</v>
       </c>
       <c r="R14">
-        <v>23888.200290933</v>
+        <v>216815.1347505244</v>
       </c>
       <c r="S14">
-        <v>0.1060753762462013</v>
+        <v>0.1002699690135157</v>
       </c>
       <c r="T14">
-        <v>0.1060753762462013</v>
+        <v>0.1002699690135157</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>547.023962481895</v>
+        <v>548.9084373333334</v>
       </c>
       <c r="H15">
-        <v>547.023962481895</v>
+        <v>1646.725312</v>
       </c>
       <c r="I15">
-        <v>0.4930803291384774</v>
+        <v>0.4725657915915454</v>
       </c>
       <c r="J15">
-        <v>0.4930803291384774</v>
+        <v>0.4725657915915454</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>52.358197119153</v>
+        <v>54.95204066666667</v>
       </c>
       <c r="N15">
-        <v>52.358197119153</v>
+        <v>164.856122</v>
       </c>
       <c r="O15">
-        <v>0.2579315730793964</v>
+        <v>0.2656716702502996</v>
       </c>
       <c r="P15">
-        <v>0.2579315730793964</v>
+        <v>0.2656716702502997</v>
       </c>
       <c r="Q15">
-        <v>28641.18845652721</v>
+        <v>30163.63877061779</v>
       </c>
       <c r="R15">
-        <v>28641.18845652721</v>
+        <v>271472.7489355601</v>
       </c>
       <c r="S15">
-        <v>0.127180984949194</v>
+        <v>0.1255473431552809</v>
       </c>
       <c r="T15">
-        <v>0.127180984949194</v>
+        <v>0.1255473431552809</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>547.023962481895</v>
+        <v>548.9084373333334</v>
       </c>
       <c r="H16">
-        <v>547.023962481895</v>
+        <v>1646.725312</v>
       </c>
       <c r="I16">
-        <v>0.4930803291384774</v>
+        <v>0.4725657915915454</v>
       </c>
       <c r="J16">
-        <v>0.4930803291384774</v>
+        <v>0.4725657915915454</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.194592088772611</v>
+        <v>8.490878</v>
       </c>
       <c r="N16">
-        <v>8.194592088772611</v>
+        <v>25.472634</v>
       </c>
       <c r="O16">
-        <v>0.04036892300533226</v>
+        <v>0.04105008135794053</v>
       </c>
       <c r="P16">
-        <v>0.04036892300533226</v>
+        <v>0.04105008135794054</v>
       </c>
       <c r="Q16">
-        <v>4482.638235323182</v>
+        <v>4660.714574567979</v>
       </c>
       <c r="R16">
-        <v>4482.638235323182</v>
+        <v>41946.43117111181</v>
       </c>
       <c r="S16">
-        <v>0.01990512184243508</v>
+        <v>0.01939886419181251</v>
       </c>
       <c r="T16">
-        <v>0.01990512184243508</v>
+        <v>0.01939886419181251</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>425.341362003131</v>
+        <v>474.7139793333333</v>
       </c>
       <c r="H17">
-        <v>425.341362003131</v>
+        <v>1424.141938</v>
       </c>
       <c r="I17">
-        <v>0.3833972058941633</v>
+        <v>0.4086903610246367</v>
       </c>
       <c r="J17">
-        <v>0.3833972058941633</v>
+        <v>0.4086903610246367</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>46.9014718238501</v>
+        <v>47.53430066666667</v>
       </c>
       <c r="N17">
-        <v>46.9014718238501</v>
+        <v>142.602902</v>
       </c>
       <c r="O17">
-        <v>0.2310501711839757</v>
+        <v>0.2298097923041026</v>
       </c>
       <c r="P17">
-        <v>0.2310501711839757</v>
+        <v>0.2298097923041026</v>
       </c>
       <c r="Q17">
-        <v>19949.13590550788</v>
+        <v>22565.19702430045</v>
       </c>
       <c r="R17">
-        <v>19949.13590550788</v>
+        <v>203086.7732187041</v>
       </c>
       <c r="S17">
-        <v>0.0885839900533044</v>
+        <v>0.09392104698376044</v>
       </c>
       <c r="T17">
-        <v>0.0885839900533044</v>
+        <v>0.09392104698376046</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>425.341362003131</v>
+        <v>474.7139793333333</v>
       </c>
       <c r="H18">
-        <v>425.341362003131</v>
+        <v>1424.141938</v>
       </c>
       <c r="I18">
-        <v>0.3833972058941633</v>
+        <v>0.4086903610246367</v>
       </c>
       <c r="J18">
-        <v>0.3833972058941633</v>
+        <v>0.4086903610246367</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>51.8689398202768</v>
+        <v>51.976569</v>
       </c>
       <c r="N18">
-        <v>51.8689398202768</v>
+        <v>155.929707</v>
       </c>
       <c r="O18">
-        <v>0.2555213505797078</v>
+        <v>0.2512864259922955</v>
       </c>
       <c r="P18">
-        <v>0.2555213505797078</v>
+        <v>0.2512864259922956</v>
       </c>
       <c r="Q18">
-        <v>22062.00550881497</v>
+        <v>24674.00390208358</v>
       </c>
       <c r="R18">
-        <v>22062.00550881497</v>
+        <v>222066.0351187522</v>
       </c>
       <c r="S18">
-        <v>0.09796617185856291</v>
+        <v>0.1026983401593819</v>
       </c>
       <c r="T18">
-        <v>0.09796617185856291</v>
+        <v>0.1026983401593819</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>425.341362003131</v>
+        <v>474.7139793333333</v>
       </c>
       <c r="H19">
-        <v>425.341362003131</v>
+        <v>1424.141938</v>
       </c>
       <c r="I19">
-        <v>0.3833972058941633</v>
+        <v>0.4086903610246367</v>
       </c>
       <c r="J19">
-        <v>0.3833972058941633</v>
+        <v>0.4086903610246367</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>43.6693854919082</v>
+        <v>43.88814033333333</v>
       </c>
       <c r="N19">
-        <v>43.6693854919082</v>
+        <v>131.664421</v>
       </c>
       <c r="O19">
-        <v>0.2151279821515877</v>
+        <v>0.2121820300953617</v>
       </c>
       <c r="P19">
-        <v>0.2151279821515877</v>
+        <v>0.2121820300953618</v>
       </c>
       <c r="Q19">
-        <v>18574.395902968</v>
+        <v>20834.31374317643</v>
       </c>
       <c r="R19">
-        <v>18574.395902968</v>
+        <v>187508.8236885879</v>
       </c>
       <c r="S19">
-        <v>0.08247946726656813</v>
+        <v>0.08671675048261371</v>
       </c>
       <c r="T19">
-        <v>0.08247946726656813</v>
+        <v>0.08671675048261372</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>425.341362003131</v>
+        <v>474.7139793333333</v>
       </c>
       <c r="H20">
-        <v>425.341362003131</v>
+        <v>1424.141938</v>
       </c>
       <c r="I20">
-        <v>0.3833972058941633</v>
+        <v>0.4086903610246367</v>
       </c>
       <c r="J20">
-        <v>0.3833972058941633</v>
+        <v>0.4086903610246367</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>52.358197119153</v>
+        <v>54.95204066666667</v>
       </c>
       <c r="N20">
-        <v>52.358197119153</v>
+        <v>164.856122</v>
       </c>
       <c r="O20">
-        <v>0.2579315730793964</v>
+        <v>0.2656716702502996</v>
       </c>
       <c r="P20">
-        <v>0.2579315730793964</v>
+        <v>0.2656716702502997</v>
       </c>
       <c r="Q20">
-        <v>22270.10687468895</v>
+        <v>26086.50189736049</v>
       </c>
       <c r="R20">
-        <v>22270.10687468895</v>
+        <v>234778.5170762444</v>
       </c>
       <c r="S20">
-        <v>0.09889024443052676</v>
+        <v>0.1085774508286132</v>
       </c>
       <c r="T20">
-        <v>0.09889024443052676</v>
+        <v>0.1085774508286132</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>425.341362003131</v>
+        <v>474.7139793333333</v>
       </c>
       <c r="H21">
-        <v>425.341362003131</v>
+        <v>1424.141938</v>
       </c>
       <c r="I21">
-        <v>0.3833972058941633</v>
+        <v>0.4086903610246367</v>
       </c>
       <c r="J21">
-        <v>0.3833972058941633</v>
+        <v>0.4086903610246367</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>8.194592088772611</v>
+        <v>8.490878</v>
       </c>
       <c r="N21">
-        <v>8.194592088772611</v>
+        <v>25.472634</v>
       </c>
       <c r="O21">
-        <v>0.04036892300533226</v>
+        <v>0.04105008135794053</v>
       </c>
       <c r="P21">
-        <v>0.04036892300533226</v>
+        <v>0.04105008135794054</v>
       </c>
       <c r="Q21">
-        <v>3485.498960098625</v>
+        <v>4030.738483413855</v>
       </c>
       <c r="R21">
-        <v>3485.498960098625</v>
+        <v>36276.64635072469</v>
       </c>
       <c r="S21">
-        <v>0.01547733228520099</v>
+        <v>0.01677677257026743</v>
       </c>
       <c r="T21">
-        <v>0.01547733228520099</v>
+        <v>0.01677677257026743</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>6.72088624911391</v>
+        <v>7.512300333333333</v>
       </c>
       <c r="H22">
-        <v>6.72088624911391</v>
+        <v>22.536901</v>
       </c>
       <c r="I22">
-        <v>0.006058119993098176</v>
+        <v>0.006467483303666671</v>
       </c>
       <c r="J22">
-        <v>0.006058119993098176</v>
+        <v>0.006467483303666671</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>46.9014718238501</v>
+        <v>47.53430066666667</v>
       </c>
       <c r="N22">
-        <v>46.9014718238501</v>
+        <v>142.602902</v>
       </c>
       <c r="O22">
-        <v>0.2310501711839757</v>
+        <v>0.2298097923041026</v>
       </c>
       <c r="P22">
-        <v>0.2310501711839757</v>
+        <v>0.2298097923041026</v>
       </c>
       <c r="Q22">
-        <v>315.2194570441176</v>
+        <v>357.0919427429669</v>
       </c>
       <c r="R22">
-        <v>315.2194570441176</v>
+        <v>3213.827484686702</v>
       </c>
       <c r="S22">
-        <v>0.001399729661458399</v>
+        <v>0.001486290994745889</v>
       </c>
       <c r="T22">
-        <v>0.001399729661458399</v>
+        <v>0.001486290994745889</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>6.72088624911391</v>
+        <v>7.512300333333333</v>
       </c>
       <c r="H23">
-        <v>6.72088624911391</v>
+        <v>22.536901</v>
       </c>
       <c r="I23">
-        <v>0.006058119993098176</v>
+        <v>0.006467483303666671</v>
       </c>
       <c r="J23">
-        <v>0.006058119993098176</v>
+        <v>0.006467483303666671</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>51.8689398202768</v>
+        <v>51.976569</v>
       </c>
       <c r="N23">
-        <v>51.8689398202768</v>
+        <v>155.929707</v>
       </c>
       <c r="O23">
-        <v>0.2555213505797078</v>
+        <v>0.2512864259922955</v>
       </c>
       <c r="P23">
-        <v>0.2555213505797078</v>
+        <v>0.2512864259922956</v>
       </c>
       <c r="Q23">
-        <v>348.6052443942153</v>
+        <v>390.463596624223</v>
       </c>
       <c r="R23">
-        <v>348.6052443942153</v>
+        <v>3514.172369618007</v>
       </c>
       <c r="S23">
-        <v>0.001547979002610376</v>
+        <v>0.001625190764543242</v>
       </c>
       <c r="T23">
-        <v>0.001547979002610376</v>
+        <v>0.001625190764543242</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>6.72088624911391</v>
+        <v>7.512300333333333</v>
       </c>
       <c r="H24">
-        <v>6.72088624911391</v>
+        <v>22.536901</v>
       </c>
       <c r="I24">
-        <v>0.006058119993098176</v>
+        <v>0.006467483303666671</v>
       </c>
       <c r="J24">
-        <v>0.006058119993098176</v>
+        <v>0.006467483303666671</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>43.6693854919082</v>
+        <v>43.88814033333333</v>
       </c>
       <c r="N24">
-        <v>43.6693854919082</v>
+        <v>131.664421</v>
       </c>
       <c r="O24">
-        <v>0.2151279821515877</v>
+        <v>0.2121820300953617</v>
       </c>
       <c r="P24">
-        <v>0.2151279821515877</v>
+        <v>0.2121820300953618</v>
       </c>
       <c r="Q24">
-        <v>293.4969724598203</v>
+        <v>329.7008912554801</v>
       </c>
       <c r="R24">
-        <v>293.4969724598203</v>
+        <v>2967.308021299321</v>
       </c>
       <c r="S24">
-        <v>0.001303271129747401</v>
+        <v>0.001372283736979851</v>
       </c>
       <c r="T24">
-        <v>0.001303271129747401</v>
+        <v>0.001372283736979851</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>6.72088624911391</v>
+        <v>7.512300333333333</v>
       </c>
       <c r="H25">
-        <v>6.72088624911391</v>
+        <v>22.536901</v>
       </c>
       <c r="I25">
-        <v>0.006058119993098176</v>
+        <v>0.006467483303666671</v>
       </c>
       <c r="J25">
-        <v>0.006058119993098176</v>
+        <v>0.006467483303666671</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>52.358197119153</v>
+        <v>54.95204066666667</v>
       </c>
       <c r="N25">
-        <v>52.358197119153</v>
+        <v>164.856122</v>
       </c>
       <c r="O25">
-        <v>0.2579315730793964</v>
+        <v>0.2656716702502996</v>
       </c>
       <c r="P25">
-        <v>0.2579315730793964</v>
+        <v>0.2656716702502997</v>
       </c>
       <c r="Q25">
-        <v>351.8934870465109</v>
+        <v>412.8162334175469</v>
       </c>
       <c r="R25">
-        <v>351.8934870465109</v>
+        <v>3715.346100757922</v>
       </c>
       <c r="S25">
-        <v>0.001562580419723555</v>
+        <v>0.00171822709160105</v>
       </c>
       <c r="T25">
-        <v>0.001562580419723555</v>
+        <v>0.001718227091601051</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>6.72088624911391</v>
+        <v>7.512300333333333</v>
       </c>
       <c r="H26">
-        <v>6.72088624911391</v>
+        <v>22.536901</v>
       </c>
       <c r="I26">
-        <v>0.006058119993098176</v>
+        <v>0.006467483303666671</v>
       </c>
       <c r="J26">
-        <v>0.006058119993098176</v>
+        <v>0.006467483303666671</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>8.194592088772611</v>
+        <v>8.490878</v>
       </c>
       <c r="N26">
-        <v>8.194592088772611</v>
+        <v>25.472634</v>
       </c>
       <c r="O26">
-        <v>0.04036892300533226</v>
+        <v>0.04105008135794053</v>
       </c>
       <c r="P26">
-        <v>0.04036892300533226</v>
+        <v>0.04105008135794054</v>
       </c>
       <c r="Q26">
-        <v>55.07492128652947</v>
+        <v>63.78602562969267</v>
       </c>
       <c r="R26">
-        <v>55.07492128652947</v>
+        <v>574.074230667234</v>
       </c>
       <c r="S26">
-        <v>0.0002445597795584442</v>
+        <v>0.0002654907157966389</v>
       </c>
       <c r="T26">
-        <v>0.0002445597795584442</v>
+        <v>0.0002654907157966389</v>
       </c>
     </row>
   </sheetData>
